--- a/11-16-25 to 11-22-25 Milwaukee Schedule.xlsx
+++ b/11-16-25 to 11-22-25 Milwaukee Schedule.xlsx
@@ -513,8 +513,16 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -540,24 +548,64 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -571,24 +619,64 @@
           <t> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 13</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -606,20 +694,44 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bags 5-6</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Bags 5-6</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
     </row>

--- a/11-16-25 to 11-22-25 Milwaukee Schedule.xlsx
+++ b/11-16-25 to 11-22-25 Milwaukee Schedule.xlsx
@@ -1833,7 +1833,11 @@
           <t>Monica</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>*until 10:30</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">

--- a/11-16-25 to 11-22-25 Milwaukee Schedule.xlsx
+++ b/11-16-25 to 11-22-25 Milwaukee Schedule.xlsx
@@ -749,7 +749,11 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>White Camry oil change this day</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -3120,7 +3124,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Wht Camry available, Equip</t>
+          <t>Blk Camry available, Equip</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>

--- a/11-16-25 to 11-22-25 Milwaukee Schedule.xlsx
+++ b/11-16-25 to 11-22-25 Milwaukee Schedule.xlsx
@@ -749,11 +749,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>White Camry oil change this day</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -1607,7 +1603,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -3203,7 +3199,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -3400,7 +3396,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>work w/ Jerry</t>
+          <t>work w/ Leyna</t>
         </is>
       </c>
       <c r="P60" t="inlineStr"/>

--- a/11-16-25 to 11-22-25 Milwaukee Schedule.xlsx
+++ b/11-16-25 to 11-22-25 Milwaukee Schedule.xlsx
@@ -2513,11 +2513,7 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>5:30 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
@@ -2572,11 +2568,7 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -2623,11 +2615,7 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
@@ -2674,11 +2662,7 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>LBS EXPRESS MART, MACHESNEY PARK</t>
-        </is>
-      </c>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -2729,11 +2713,7 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>8320 N 2ND ST</t>
-        </is>
-      </c>
+      <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -2776,11 +2756,7 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/qbg8FFvghhF62dgc8</t>
-        </is>
-      </c>
+      <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -2899,21 +2875,9 @@
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -2962,16 +2926,8 @@
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>

--- a/11-16-25 to 11-22-25 Milwaukee Schedule.xlsx
+++ b/11-16-25 to 11-22-25 Milwaukee Schedule.xlsx
@@ -1513,7 +1513,7 @@
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr">
         <is>
-          <t>8:00 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+          <t>7:45 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
